--- a/data/trans_camb/P1403-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1403-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-0.9794247002375717</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>3.102861229959907</v>
+        <v>3.102861229959901</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>2.628307423840366</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.4140145418795586</v>
+        <v>0.280221705488162</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.393576020572362</v>
+        <v>-1.926473455255558</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.156584510798759</v>
+        <v>5.094929436851161</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.710708801480367</v>
+        <v>-5.113719799180845</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-5.75599221955304</v>
+        <v>-5.983885121748174</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.543172667253384</v>
+        <v>-1.441453815388059</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.002287868392695</v>
+        <v>-1.10731754802333</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.67251258589815</v>
+        <v>-2.319125401445663</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.413585696419706</v>
+        <v>3.628987614378631</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.327023534330019</v>
+        <v>10.23415936871128</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.64119940927866</v>
+        <v>7.009424435026212</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.49314109914617</v>
+        <v>14.3433934334507</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.052534708454247</v>
+        <v>4.10089927749272</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.060779793870988</v>
+        <v>4.154553940859095</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.916208390106712</v>
+        <v>6.858968643010953</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.257040667191804</v>
+        <v>5.893315800573825</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.842703467968402</v>
+        <v>4.162840787038799</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>9.596841541186903</v>
+        <v>9.8345985002021</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.1000180437989841</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3168616334926231</v>
+        <v>0.3168616334926226</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.250047638007221</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.0339664245786906</v>
+        <v>0.02452726641440362</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1927639653274265</v>
+        <v>-0.1664856338000132</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.3736720339443046</v>
+        <v>0.3413025266718298</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4783005155964654</v>
+        <v>-0.4286062935200861</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4852373424726456</v>
+        <v>-0.4865402781623169</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1155086720633411</v>
+        <v>-0.1198603303383603</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.08959267403339313</v>
+        <v>-0.08763606460917329</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2238489580055942</v>
+        <v>-0.1972353295334214</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.263105045401697</v>
+        <v>0.2946423808650396</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.016225367256688</v>
+        <v>1.189158723811926</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.7489789286256211</v>
+        <v>0.7797697883785732</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.607260139168782</v>
+        <v>1.593452937307569</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.5327866003164349</v>
+        <v>0.5412571211784093</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5679037092716083</v>
+        <v>0.5481384485031821</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9646205247808295</v>
+        <v>0.9932847710924685</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6923440321054785</v>
+        <v>0.6613288000389949</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4325877732705423</v>
+        <v>0.4595959492368709</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.090099357853719</v>
+        <v>1.116254803094148</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>2.725824631583863</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9.4677857357739</v>
+        <v>9.467785735773894</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>4.322466497892578</v>
@@ -869,7 +869,7 @@
         <v>2.937226389988849</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>8.278226273088867</v>
+        <v>8.278226273088871</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>2.683348261038617</v>
@@ -878,7 +878,7 @@
         <v>2.873873705354399</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>9.154510055280319</v>
+        <v>9.154510055280317</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.964816382008675</v>
+        <v>-3.411148997738481</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.241566606520723</v>
+        <v>-2.397734198772548</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.911074203286075</v>
+        <v>4.270085904955185</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09634621988605965</v>
+        <v>0.3009996110894719</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.8902243237792534</v>
+        <v>-0.9981213542469742</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>4.805363823686069</v>
+        <v>4.430647197346863</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.3498593441590131</v>
+        <v>-0.2131823309237912</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.4457654477967957</v>
+        <v>-0.5138149032402691</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>6.103497347868368</v>
+        <v>5.97077963534016</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.253610518779041</v>
+        <v>5.526640275385465</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.860376788083435</v>
+        <v>7.521846651579718</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.79101653533995</v>
+        <v>14.11077447611034</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.855873719278442</v>
+        <v>8.697287158590376</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.103239130079555</v>
+        <v>7.308018459708676</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>11.91924700558453</v>
+        <v>11.69611510097825</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.076410703556665</v>
+        <v>6.079037826738044</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>6.065760789211005</v>
+        <v>6.13913045917113</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>12.05721871121061</v>
+        <v>12.10981366195009</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.2280522979904084</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.792109025982884</v>
+        <v>0.7921090259828835</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.7900241086134026</v>
@@ -974,7 +974,7 @@
         <v>0.5368415606409106</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>1.513024643565349</v>
+        <v>1.51302464356535</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.3087736269541694</v>
@@ -983,7 +983,7 @@
         <v>0.3306974425552306</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>1.05341200536647</v>
+        <v>1.053412005366469</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2784922982694438</v>
+        <v>-0.2495511485089978</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1721857456263756</v>
+        <v>-0.168424079642316</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.3270421077330318</v>
+        <v>0.2852218133390133</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.03946433928807577</v>
+        <v>-0.01406039958235912</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1360263904909113</v>
+        <v>-0.1731009586715615</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6028241686277028</v>
+        <v>0.5591550434975692</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.03410760151041838</v>
+        <v>-0.02781138692242046</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.04773945924371233</v>
+        <v>-0.05630062586108327</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.5675955467697207</v>
+        <v>0.5594565089899602</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5578734334768419</v>
+        <v>0.6068531104753393</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.8157932725438015</v>
+        <v>0.7711593735724868</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.568193104988167</v>
+        <v>1.469769480762333</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.157979875112781</v>
+        <v>2.249978440947496</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.951581921133625</v>
+        <v>1.846610742644939</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.237746946967642</v>
+        <v>3.193521422658196</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8274129151567495</v>
+        <v>0.8548454652689814</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8429161670892891</v>
+        <v>0.8374750179702567</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.710468123341154</v>
+        <v>1.68469922417671</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>3.285631764289926</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7.764213386964913</v>
+        <v>7.764213386964911</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>9.621974027062038</v>
@@ -1092,7 +1092,7 @@
         <v>4.363041943094847</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>8.794382918390978</v>
+        <v>8.794382918390975</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.175767428808524</v>
+        <v>3.940009308439599</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.285720330007665</v>
+        <v>-1.147332734709109</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.103662626220246</v>
+        <v>3.25122906119729</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.238445577907098</v>
+        <v>2.214973088387628</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.793620828350196</v>
+        <v>-0.7855908088341985</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.886991346780743</v>
+        <v>3.847319654153197</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>4.865010116056869</v>
+        <v>4.905768101136604</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.7890581722886764</v>
+        <v>0.7420244241251696</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>4.385722427891083</v>
+        <v>5.218479277035896</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.04548752491123</v>
+        <v>12.81369944669835</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.65568254547114</v>
+        <v>7.408074059645653</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.71774143279871</v>
+        <v>12.60419537388035</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16.42127887261739</v>
+        <v>16.75740153709016</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>16.08906994020969</v>
+        <v>17.17475965901713</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>18.2803156753165</v>
+        <v>18.13139557323203</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>12.49958455961157</v>
+        <v>12.567567296906</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>8.255629122383292</v>
+        <v>8.238382339697683</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>12.36412929483444</v>
+        <v>12.63822252100243</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.2507203494713316</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.5924724477365571</v>
+        <v>0.5924724477365568</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.7598305096542211</v>
@@ -1197,7 +1197,7 @@
         <v>0.3356064318083886</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.676466444671462</v>
+        <v>0.6764664446714618</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2662231892683698</v>
+        <v>0.2406256534388004</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.0822685320339778</v>
+        <v>-0.07765350515833286</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.183966329044054</v>
+        <v>0.2057622619571415</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.07132841168719702</v>
+        <v>0.1164553853735815</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.07230814767211341</v>
+        <v>-0.0487057089705842</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1797441466028777</v>
+        <v>0.2183851905370813</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3197183123840589</v>
+        <v>0.3137445125351513</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.0393488050742176</v>
+        <v>0.05603379131645973</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2949415434669705</v>
+        <v>0.3455784191872286</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.178284396692728</v>
+        <v>1.170168649872182</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.6833472747842737</v>
+        <v>0.6391530708579538</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.119864567357069</v>
+        <v>1.155839678519655</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.760342139290413</v>
+        <v>1.883361889482979</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.717950803559592</v>
+        <v>1.930832415881563</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.070242400171495</v>
+        <v>2.043029296158132</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.113715446512024</v>
+        <v>1.129164316948721</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.7096201856037618</v>
+        <v>0.7516936415205182</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.094400366657773</v>
+        <v>1.133045428965486</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>1.418982995687881</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.923841541340212</v>
+        <v>3.923841541340209</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-3.447587872399518</v>
@@ -1297,7 +1297,7 @@
         <v>-3.057982290124064</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1.281396722897393</v>
+        <v>1.28139672289739</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.2487497581456721</v>
@@ -1306,7 +1306,7 @@
         <v>-0.5999160939343939</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>2.594236811817316</v>
+        <v>2.594236811817321</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.9751241372253309</v>
+        <v>-0.9696874388514619</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.761924308350279</v>
+        <v>-1.688913315979538</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.850900636720244</v>
+        <v>0.722361572671949</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-6.644400137661696</v>
+        <v>-7.057497067579919</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-6.573015005776697</v>
+        <v>-6.441655548321483</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.168546385988443</v>
+        <v>-2.273438739050934</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.554526652589427</v>
+        <v>-2.586074729960913</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.057116885966782</v>
+        <v>-2.802074282011359</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1998706999102515</v>
+        <v>0.3049472144125716</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.707608054427752</v>
+        <v>5.257985360139698</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.739879798722811</v>
+        <v>4.368173640178162</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.387047655057274</v>
+        <v>6.872451110048281</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.0006962473815453892</v>
+        <v>-0.0445640019866485</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2274950076464765</v>
+        <v>0.1692342931747855</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.256381287607774</v>
+        <v>4.321691310971659</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.098485254724916</v>
+        <v>2.159459775404027</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.401683028288519</v>
+        <v>1.862791159347971</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.635132997907254</v>
+        <v>4.910703766557933</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.08309944606700301</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.2297906736944358</v>
+        <v>0.2297906736944356</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.2418189332981173</v>
@@ -1402,7 +1402,7 @@
         <v>-0.2144914191636423</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08987906911480237</v>
+        <v>0.08987906911480217</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.01550367124168613</v>
@@ -1411,7 +1411,7 @@
         <v>-0.03739059672777077</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.1616893819448138</v>
+        <v>0.1616893819448141</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.05160217731354525</v>
+        <v>-0.05231690251650647</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.09589336606881164</v>
+        <v>-0.09178889424502205</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.04547416922004279</v>
+        <v>0.02606042593351751</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4175044911604691</v>
+        <v>-0.4406151704050932</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4084594811370951</v>
+        <v>-0.3972864773731375</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1287266771541342</v>
+        <v>-0.1283299264718821</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1496209906772371</v>
+        <v>-0.1508976626890974</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1778582737031067</v>
+        <v>-0.1643212720375358</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.01116822946739874</v>
+        <v>0.01848231805812432</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3645483257081824</v>
+        <v>0.3392917895119295</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3038918395100064</v>
+        <v>0.279046743425901</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.4851465374994958</v>
+        <v>0.4250618873345585</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>3.567184926901685e-05</v>
+        <v>-0.002974130452057348</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.019959628618462</v>
+        <v>0.01864470998602315</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3354987315570795</v>
+        <v>0.3501930137791285</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1430076543183735</v>
+        <v>0.1440149910207195</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.0946788642770502</v>
+        <v>0.1240087104007813</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.314151968272035</v>
+        <v>0.3349297265637681</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>4.045161492462225</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6.515881257319957</v>
+        <v>6.515881257319951</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>9.731466792973489</v>
@@ -1520,7 +1520,7 @@
         <v>3.546403175693777</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>9.814769696188955</v>
+        <v>9.814769696188957</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.9969337963203181</v>
+        <v>1.311074718802882</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.5154688209197187</v>
+        <v>-0.4248108914916842</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.887129728313364</v>
+        <v>1.72985931405957</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4.96691842749123</v>
+        <v>5.109386034650249</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.5817235064972038</v>
+        <v>-0.9384361201485817</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>8.133621570502015</v>
+        <v>7.775319301935411</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>4.976346568323281</v>
+        <v>4.678107186606819</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.5438608388994604</v>
+        <v>0.2968044367104175</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>6.736484356915177</v>
+        <v>6.659874264055586</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>10.70711284575602</v>
+        <v>11.37442532117289</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>8.348856716943693</v>
+        <v>8.494180903748786</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10.89534360776639</v>
+        <v>11.18694078317103</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>13.62339535857084</v>
+        <v>13.75585019893075</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>7.931116333222614</v>
+        <v>7.434952265487757</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>16.10132825117602</v>
+        <v>15.84972093449299</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>11.66001728666429</v>
+        <v>11.19192681716433</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>6.70959087382055</v>
+        <v>6.636350726869016</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>12.90819248482484</v>
+        <v>12.90146516043418</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.3283325584032</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.5288728194050708</v>
+        <v>0.5288728194050704</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.6250209263968446</v>
@@ -1625,7 +1625,7 @@
         <v>0.2474688505994663</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.684876945819676</v>
+        <v>0.6848769458196762</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.04802910813661036</v>
+        <v>0.07281442226252705</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.03767856609809146</v>
+        <v>-0.03243496282259275</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.1283491140166269</v>
+        <v>0.09627845719120444</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.2600776245277069</v>
+        <v>0.2748470423549285</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.04420770708926307</v>
+        <v>-0.05409142960636156</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4343352548055132</v>
+        <v>0.4025954317810889</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3081698618349653</v>
+        <v>0.2853990784841248</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.03714536353487162</v>
+        <v>0.01856850353632663</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.4167260243359369</v>
+        <v>0.3945000033736958</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.068253710347288</v>
+        <v>1.141932498239548</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.855463955172019</v>
+        <v>0.8839663793521561</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.136892859351803</v>
+        <v>1.140498451920555</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.019768312454959</v>
+        <v>1.042070125417519</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.5991364737191454</v>
+        <v>0.5407422854408795</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.252299354791516</v>
+        <v>1.195094645038403</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.9246184922765083</v>
+        <v>0.8957865547475263</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.5423441185437425</v>
+        <v>0.5220309741032069</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.049173062356608</v>
+        <v>1.021870674023075</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>-0.8417950880638715</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>0.3088804172662895</v>
+        <v>0.3088804172662898</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>6.489843177165177</v>
@@ -1725,7 +1725,7 @@
         <v>2.505912211895716</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>3.692474369994697</v>
+        <v>3.692474369994692</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>5.18049239857481</v>
@@ -1734,7 +1734,7 @@
         <v>1.408654436082987</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>2.324883532548702</v>
+        <v>2.324883532548697</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.123114621926068</v>
+        <v>-1.879852043888894</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.600660646391862</v>
+        <v>-2.438575081246241</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.586550773306104</v>
+        <v>-1.602789388655834</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>2.69151126187288</v>
+        <v>2.99038876956455</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.25048751217932</v>
+        <v>-1.173214706724147</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.2845752062200546</v>
+        <v>-0.167266170294778</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>2.027050704771849</v>
+        <v>2.213632235465743</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-1.967098458288479</v>
+        <v>-1.506115980162344</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-0.9757141608540625</v>
+        <v>-0.5199635005218635</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.954855339857971</v>
+        <v>2.117432635854263</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.8980707249901011</v>
+        <v>0.9917990951876066</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2.564750652237839</v>
+        <v>2.468412385616171</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>10.28489564008915</v>
+        <v>10.53813315399236</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>6.231472946833607</v>
+        <v>6.507442387926123</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>7.353928040196219</v>
+        <v>7.279197189577935</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>8.296950694022351</v>
+        <v>8.20922706269255</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>4.420300596185094</v>
+        <v>4.864034416702803</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>5.242045668623202</v>
+        <v>5.322227362361401</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>-0.5318255217968842</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.1951430834115531</v>
+        <v>0.1951430834115533</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.2607657409188317</v>
@@ -1830,7 +1830,7 @@
         <v>0.1006890362022539</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1483658061728472</v>
+        <v>0.148365806172847</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.254004510949138</v>
@@ -1839,7 +1839,7 @@
         <v>0.06906767805161293</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.113991269413154</v>
+        <v>0.1139912694131537</v>
       </c>
     </row>
     <row r="38">
@@ -1850,29 +1850,29 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.8568943606568324</v>
+        <v>-0.8312961011748505</v>
       </c>
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="n">
-        <v>-0.6910848487029403</v>
+        <v>-0.7073956713546971</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.09743339052218704</v>
+        <v>0.1081633567536464</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.04718718055785476</v>
+        <v>-0.04394356765718072</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.006342199197500968</v>
+        <v>-0.005966292858040378</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.09418354298248843</v>
+        <v>0.1004373121016688</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.08974867311921464</v>
+        <v>-0.07015412072854461</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.04421188094429337</v>
+        <v>-0.02482333423665373</v>
       </c>
     </row>
     <row r="39">
@@ -1883,29 +1883,29 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>3.277184739679679</v>
+        <v>4.660573978252148</v>
       </c>
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="n">
-        <v>4.751003767676891</v>
+        <v>4.216900264530723</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.4524730025076718</v>
+        <v>0.4521112142751065</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.2684157667750517</v>
+        <v>0.2790417899059523</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.3258670527979835</v>
+        <v>0.3184813584487641</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.444826065103112</v>
+        <v>0.429579168566917</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.2326982931287197</v>
+        <v>0.2519876386037602</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.2783817961084984</v>
+        <v>0.2811974991615602</v>
       </c>
     </row>
     <row r="40">
@@ -1926,7 +1926,7 @@
         <v>2.150427837379307</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>6.321956809144416</v>
+        <v>6.321956809144414</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>4.003188769961288</v>
@@ -1935,7 +1935,7 @@
         <v>0.7714222746866867</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>4.285645580302108</v>
+        <v>4.285645580302106</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>3.913067122651342</v>
@@ -1944,7 +1944,7 @@
         <v>1.455897454211347</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>5.297804369218106</v>
+        <v>5.297804369218112</v>
       </c>
     </row>
     <row r="41">
@@ -1955,31 +1955,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>1.97149174828422</v>
+        <v>2.232202543801017</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.5312176610087259</v>
+        <v>0.5006827511571165</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>4.48830592516803</v>
+        <v>4.744301461271536</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1.979962849478023</v>
+        <v>2.029853501834054</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.360632090771476</v>
+        <v>-0.9348002748742402</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>2.558050655319117</v>
+        <v>2.510722120981526</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>2.415851530030876</v>
+        <v>2.7008691904868</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.05276124012729738</v>
+        <v>0.2039671029133374</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>4.059533172871912</v>
+        <v>4.179566933957766</v>
       </c>
     </row>
     <row r="42">
@@ -1990,31 +1990,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>5.576022309857045</v>
+        <v>5.662068284555845</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>3.912461786281619</v>
+        <v>3.799973868637217</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>8.004995546018582</v>
+        <v>8.059599728316144</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5.816191772530292</v>
+        <v>5.773872490319961</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.536625100782498</v>
+        <v>2.692336268341693</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>5.763710618624464</v>
+        <v>5.827756923011632</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>5.067953045575646</v>
+        <v>5.203870196989699</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>2.717776516588943</v>
+        <v>2.859539171876659</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>6.500821601142444</v>
+        <v>6.750786934730965</v>
       </c>
     </row>
     <row r="43">
@@ -2031,7 +2031,7 @@
         <v>0.1649594646764507</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.4849577339061192</v>
+        <v>0.484957733906119</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.2360907243098388</v>
@@ -2040,7 +2040,7 @@
         <v>0.04549514250892658</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2527488028496264</v>
+        <v>0.2527488028496263</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.2603860802044189</v>
@@ -2049,7 +2049,7 @@
         <v>0.0968793581605686</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.3525302454959853</v>
+        <v>0.3525302454959857</v>
       </c>
     </row>
     <row r="44">
@@ -2060,31 +2060,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.1459301444101744</v>
+        <v>0.1663873244147628</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.03763873945248478</v>
+        <v>0.03437513382850841</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.3257512949291711</v>
+        <v>0.344988578587691</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.1103829987902854</v>
+        <v>0.111877967984799</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.07273588686061552</v>
+        <v>-0.05309223952825765</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1456023164463089</v>
+        <v>0.1403091889684811</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1542143964698574</v>
+        <v>0.1736661351292487</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.003390254051381994</v>
+        <v>0.01365420672114626</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.2582692415829687</v>
+        <v>0.2665678135322391</v>
       </c>
     </row>
     <row r="45">
@@ -2095,31 +2095,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.4683495308313807</v>
+        <v>0.4631652914295268</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.324833162614346</v>
+        <v>0.3071214792452185</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.6675923716358542</v>
+        <v>0.66803709782948</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.3618923414302584</v>
+        <v>0.3613684831656807</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.1605930551488948</v>
+        <v>0.1678670699767519</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.3640344112560415</v>
+        <v>0.3635028721017957</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.351083890108476</v>
+        <v>0.3598342584569906</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.1908997613087448</v>
+        <v>0.1957576402639789</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.4527323146691074</v>
+        <v>0.4710086733616529</v>
       </c>
     </row>
     <row r="46">
